--- a/data/procon/combine_with_other_tools - parse.xlsx
+++ b/data/procon/combine_with_other_tools - parse.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Box\Cov2_protein\data\procon\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480A7A2C-9986-4546-9482-3F637F09314B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -94,12 +100,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -107,8 +116,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -147,22 +163,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -204,7 +232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,9 +264,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,6 +316,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,14 +509,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -472,301 +545,301 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>0.060957941652652</v>
-      </c>
-      <c r="E2">
-        <v>0.5594594011817327</v>
+      <c r="D2" s="3">
+        <v>6.0957941652651997E-2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.55945940118173265</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>-0.2074997928517727</v>
       </c>
-      <c r="E3">
-        <v>0.0447746160172081</v>
+      <c r="E3" s="3">
+        <v>4.4774616017208099E-2</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
-        <v>0.2325022329648584</v>
-      </c>
-      <c r="E4">
-        <v>0.0009801258757229001</v>
+      <c r="D4" s="3">
+        <v>0.23250223296485839</v>
+      </c>
+      <c r="E4" s="3">
+        <v>9.801258757229001E-4</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5">
-        <v>-0.0360986499227401</v>
-      </c>
-      <c r="E5">
-        <v>0.7297792664155027</v>
+      <c r="D5" s="3">
+        <v>-3.6098649922740103E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.72977926641550273</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6">
-        <v>-0.0555255592710207</v>
-      </c>
-      <c r="E6">
-        <v>0.5950393253876889</v>
+      <c r="D6" s="3">
+        <v>-5.5525559271020701E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.59503932538768889</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7">
-        <v>-0.1936409597289424</v>
-      </c>
-      <c r="E7">
-        <v>0.0062676802121729</v>
+      <c r="D7" s="3">
+        <v>-0.19364095972894241</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6.2676802121729002E-3</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8">
-        <v>0.0475393904851585</v>
-      </c>
-      <c r="E8">
-        <v>0.6491078578543841</v>
+      <c r="D8" s="3">
+        <v>4.7539390485158498E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.64910785785438407</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9">
-        <v>0.5576923076923077</v>
-      </c>
-      <c r="E9">
-        <v>0.0037727542045721</v>
+      <c r="D9" s="3">
+        <v>0.55769230769230771</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3.7727542045720998E-3</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D10">
-        <v>0.361159857532366</v>
-      </c>
-      <c r="E10">
-        <v>0.0389239600013736</v>
+      <c r="D10" s="3">
+        <v>0.36115985753236601</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3.8923960001373603E-2</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11">
-        <v>-0.2196264813304548</v>
-      </c>
-      <c r="E11">
-        <v>0.0273306185092494</v>
+      <c r="D11" s="3">
+        <v>-0.21962648133045479</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.7330618509249401E-2</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12">
-        <v>0.1457672628688154</v>
-      </c>
-      <c r="E12">
-        <v>0.1458106746124249</v>
+      <c r="D12" s="3">
+        <v>0.14576726286881539</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.14581067461242489</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>0.1093608842843527</v>
       </c>
-      <c r="E13">
-        <v>0.09441562156671721</v>
+      <c r="E13" s="3">
+        <v>9.4415621566717206E-2</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14">
-        <v>0.2561292103340302</v>
-      </c>
-      <c r="E14">
-        <v>0.009729312636566</v>
+      <c r="D14" s="3">
+        <v>0.25612921033403019</v>
+      </c>
+      <c r="E14" s="3">
+        <v>9.7293126365659999E-3</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15">
-        <v>0.2418391982302412</v>
-      </c>
-      <c r="E15">
-        <v>0.0148308152552781</v>
+      <c r="D15" s="3">
+        <v>0.24183919823024119</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1.48308152552781E-2</v>
       </c>
       <c r="F15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D16">
-        <v>-0.1327774748314483</v>
-      </c>
-      <c r="E16">
-        <v>0.0419919921365115</v>
+      <c r="D16" s="3">
+        <v>-0.13277747483144831</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.1991992136511502E-2</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D17">
-        <v>0.2712597887717002</v>
-      </c>
-      <c r="E17">
-        <v>0.00607251774258</v>
+      <c r="D17" s="3">
+        <v>0.27125978877170021</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6.0725177425799996E-3</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18">
-        <v>-0.3013698630136986</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="3">
+        <v>-0.30136986301369861</v>
+      </c>
+      <c r="E18" s="3">
         <v>0.1191194328409136</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>-0.2493523865980056</v>
       </c>
-      <c r="E19">
-        <v>0.1616909246436379</v>
+      <c r="E19" s="3">
+        <v>0.16169092464363791</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
@@ -781,6 +854,8 @@
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="B18:B19"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/procon/combine_with_other_tools - parse.xlsx
+++ b/data/procon/combine_with_other_tools - parse.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Box\Cov2_protein\data\procon\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480A7A2C-9986-4546-9482-3F637F09314B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -100,15 +94,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -116,15 +107,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -163,34 +147,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -232,7 +204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,27 +236,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,24 +270,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -509,23 +445,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.75" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -545,301 +472,301 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
-        <v>6.0957941652651997E-2</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.55945940118173265</v>
+      <c r="D2">
+        <v>0.060957941652652</v>
+      </c>
+      <c r="E2">
+        <v>0.5594594011817327</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>-0.2074997928517727</v>
       </c>
-      <c r="E3" s="3">
-        <v>4.4774616017208099E-2</v>
+      <c r="E3">
+        <v>0.0447746160172081</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.23250223296485839</v>
-      </c>
-      <c r="E4" s="3">
-        <v>9.801258757229001E-4</v>
+      <c r="D4">
+        <v>0.2325022329648584</v>
+      </c>
+      <c r="E4">
+        <v>0.0009801258757229001</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3">
-        <v>-3.6098649922740103E-2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.72977926641550273</v>
+      <c r="D5">
+        <v>-0.0360986499227401</v>
+      </c>
+      <c r="E5">
+        <v>0.7297792664155027</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3">
-        <v>-5.5525559271020701E-2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.59503932538768889</v>
+      <c r="D6">
+        <v>-0.0555255592710207</v>
+      </c>
+      <c r="E6">
+        <v>0.5950393253876889</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3">
-        <v>-0.19364095972894241</v>
-      </c>
-      <c r="E7" s="3">
-        <v>6.2676802121729002E-3</v>
+      <c r="D7">
+        <v>-0.1936409597289424</v>
+      </c>
+      <c r="E7">
+        <v>0.0062676802121729</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3">
-        <v>4.7539390485158498E-2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.64910785785438407</v>
+      <c r="D8">
+        <v>0.0475393904851585</v>
+      </c>
+      <c r="E8">
+        <v>0.6491078578543841</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3">
-        <v>0.55769230769230771</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3.7727542045720998E-3</v>
+      <c r="D9">
+        <v>0.5576923076923077</v>
+      </c>
+      <c r="E9">
+        <v>0.0037727542045721</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3">
-        <v>0.36115985753236601</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3.8923960001373603E-2</v>
+      <c r="D10">
+        <v>0.361159857532366</v>
+      </c>
+      <c r="E10">
+        <v>0.0389239600013736</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3">
-        <v>-0.21962648133045479</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.7330618509249401E-2</v>
+      <c r="D11">
+        <v>-0.2196264813304548</v>
+      </c>
+      <c r="E11">
+        <v>0.0273306185092494</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="3">
-        <v>0.14576726286881539</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.14581067461242489</v>
+      <c r="D12">
+        <v>0.1457672628688154</v>
+      </c>
+      <c r="E12">
+        <v>0.1458106746124249</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>0.1093608842843527</v>
       </c>
-      <c r="E13" s="3">
-        <v>9.4415621566717206E-2</v>
+      <c r="E13">
+        <v>0.09441562156671721</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3">
-        <v>0.25612921033403019</v>
-      </c>
-      <c r="E14" s="3">
-        <v>9.7293126365659999E-3</v>
+      <c r="D14">
+        <v>0.2561292103340302</v>
+      </c>
+      <c r="E14">
+        <v>0.009729312636566</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="3">
-        <v>0.24183919823024119</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1.48308152552781E-2</v>
+      <c r="D15">
+        <v>0.2418391982302412</v>
+      </c>
+      <c r="E15">
+        <v>0.0148308152552781</v>
       </c>
       <c r="F15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="3">
-        <v>-0.13277747483144831</v>
-      </c>
-      <c r="E16" s="3">
-        <v>4.1991992136511502E-2</v>
+      <c r="D16">
+        <v>-0.1327774748314483</v>
+      </c>
+      <c r="E16">
+        <v>0.0419919921365115</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="3">
-        <v>0.27125978877170021</v>
-      </c>
-      <c r="E17" s="3">
-        <v>6.0725177425799996E-3</v>
+      <c r="D17">
+        <v>0.2712597887717002</v>
+      </c>
+      <c r="E17">
+        <v>0.00607251774258</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
-        <v>-0.30136986301369861</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18">
+        <v>-0.3013698630136986</v>
+      </c>
+      <c r="E18">
         <v>0.1191194328409136</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>-0.2493523865980056</v>
       </c>
-      <c r="E19" s="3">
-        <v>0.16169092464363791</v>
+      <c r="E19">
+        <v>0.1616909246436379</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
@@ -854,8 +781,6 @@
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="B18:B19"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/procon/combine_with_other_tools - parse.xlsx
+++ b/data/procon/combine_with_other_tools - parse.xlsx
@@ -1,36 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Box\Cov2_protein\data\procon\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6608F5-9B2C-4F43-951E-B0CB04C218C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
-  <si>
-    <t>Spearman correlation</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+  <si>
+    <t>Correlation</t>
   </si>
   <si>
     <t>P value</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
     <t>Top3</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
     <t>Network characteristic</t>
   </si>
   <si>
@@ -46,60 +52,60 @@
     <t>variant</t>
   </si>
   <si>
-    <t>average shortest length in sampled data</t>
+    <t>D215G-D614G(8.05),S371F-D614G(7.99),D614G-T732A(7.97)</t>
+  </si>
+  <si>
+    <t>Q493R(8.23),D215G(8.10),T547K(8.07)</t>
+  </si>
+  <si>
+    <t>B.1.1.519(7.54),P.2(Zeta)(7.45),B.1.351(Beta)(7.42)</t>
+  </si>
+  <si>
+    <t>B.1.1.519(7.97),B.1.351(Beta)(7.92),A.23.1+E484K(7.62)</t>
+  </si>
+  <si>
+    <t>G142D(-4.78),E156G(-3.67),C136F(-3.17)</t>
+  </si>
+  <si>
+    <t>T95I-G142D(-2.98),G142D-N501Y(-2.88),P9L-T859N(-2.87)</t>
+  </si>
+  <si>
+    <t>C.37(Lambda)(-1.75),C.1.2(-1.36),B.1.525(Eta)(-1.11)</t>
+  </si>
+  <si>
+    <t>C.37(Lambda)(-1.92),B.1.427(Epsilon)(-1.48),AY.4.2(-1.38)</t>
+  </si>
+  <si>
+    <t>co-conservation</t>
+  </si>
+  <si>
+    <t>edge centrality</t>
   </si>
   <si>
     <t>closeness centrality</t>
   </si>
   <si>
-    <t>co-conservation</t>
-  </si>
-  <si>
     <t>degree</t>
   </si>
   <si>
     <t>degree centrality</t>
   </si>
   <si>
-    <t>edge centrality</t>
-  </si>
-  <si>
     <t>page rank</t>
-  </si>
-  <si>
-    <t>Q493R(8.23),D215G(8.10),T547K(8.07)</t>
-  </si>
-  <si>
-    <t>D215G-D614G(8.05),S371F-D614G(7.99),D614G-T732A(7.97)</t>
-  </si>
-  <si>
-    <t>B.1.1.519(7.97),B.1.351(Beta)(7.92),A.23.1+E484K(7.62)</t>
-  </si>
-  <si>
-    <t>B.1.1.519(7.54),P.2(Zeta)(7.45),B.1.351(Beta)(7.42)</t>
-  </si>
-  <si>
-    <t>G142D(-4.78),E156G(-3.67),C136F(-3.17)</t>
-  </si>
-  <si>
-    <t>T95I-G142D(-2.98),G142D-N501Y(-2.88),P9L-T859N(-2.87)</t>
-  </si>
-  <si>
-    <t>C.37(Lambda)(-1.75),C.1.2(-1.36),B.1.525(Eta)(-1.11)</t>
-  </si>
-  <si>
-    <t>C.37(Lambda)(-1.92),B.1.427(Epsilon)(-1.48),AY.4.2(-1.38)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -107,8 +113,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -147,22 +160,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -204,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,9 +261,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,6 +313,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,342 +506,310 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>0.060957941652652</v>
-      </c>
-      <c r="E2">
-        <v>0.5594594011817327</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.23250223296485839</v>
+      </c>
+      <c r="F2" s="3">
+        <v>9.801258757229001E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-0.19364095972894241</v>
+      </c>
+      <c r="F3" s="3">
+        <v>6.2676802121729002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-0.2074997928517727</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.4774616017208099E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-3.6098649922740103E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.72977926641550273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-5.5525559271020701E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.59503932538768889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4.7539390485158498E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.64910785785438407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.36115985753236601</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3.8923960001373603E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.55769230769230771</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3.7727542045720998E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.14576726286881539</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.14581067461242489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.25612921033403019</v>
+      </c>
+      <c r="F11" s="3">
+        <v>9.7293126365659999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.24183919823024119</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.48308152552781E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.27125978877170021</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6.0725177425799996E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.1093608842843527</v>
+      </c>
+      <c r="F14" s="3">
+        <v>9.4415621566717206E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-0.13277747483144831</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4.1991992136511502E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3">
+        <v>-0.30136986301369861</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.1191194328409136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>-0.2074997928517727</v>
-      </c>
-      <c r="E3">
-        <v>0.0447746160172081</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>0.2325022329648584</v>
-      </c>
-      <c r="E4">
-        <v>0.0009801258757229001</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>-0.0360986499227401</v>
-      </c>
-      <c r="E5">
-        <v>0.7297792664155027</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>-0.0555255592710207</v>
-      </c>
-      <c r="E6">
-        <v>0.5950393253876889</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>-0.1936409597289424</v>
-      </c>
-      <c r="E7">
-        <v>0.0062676802121729</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>0.0475393904851585</v>
-      </c>
-      <c r="E8">
-        <v>0.6491078578543841</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>0.5576923076923077</v>
-      </c>
-      <c r="E9">
-        <v>0.0037727542045721</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>0.361159857532366</v>
-      </c>
-      <c r="E10">
-        <v>0.0389239600013736</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>-0.2196264813304548</v>
-      </c>
-      <c r="E11">
-        <v>0.0273306185092494</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D17" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>0.1457672628688154</v>
-      </c>
-      <c r="E12">
-        <v>0.1458106746124249</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>0.1093608842843527</v>
-      </c>
-      <c r="E13">
-        <v>0.09441562156671721</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>0.2561292103340302</v>
-      </c>
-      <c r="E14">
-        <v>0.009729312636566</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>0.2418391982302412</v>
-      </c>
-      <c r="E15">
-        <v>0.0148308152552781</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>-0.1327774748314483</v>
-      </c>
-      <c r="E16">
-        <v>0.0419919921365115</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <v>0.2712597887717002</v>
-      </c>
-      <c r="E17">
-        <v>0.00607251774258</v>
-      </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18">
-        <v>-0.3013698630136986</v>
-      </c>
-      <c r="E18">
-        <v>0.1191194328409136</v>
-      </c>
-      <c r="F18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19">
+      <c r="E17" s="3">
         <v>-0.2493523865980056</v>
       </c>
-      <c r="E19">
-        <v>0.1616909246436379</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
+      <c r="F17" s="3">
+        <v>0.16169092464363791</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B19"/>
+  <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/procon/combine_with_other_tools - parse.xlsx
+++ b/data/procon/combine_with_other_tools - parse.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Box\Cov2_protein\data\procon\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6608F5-9B2C-4F43-951E-B0CB04C218C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Correlation</t>
   </si>
@@ -58,9 +52,6 @@
     <t>Q493R(8.23),D215G(8.10),T547K(8.07)</t>
   </si>
   <si>
-    <t>B.1.1.519(7.54),P.2(Zeta)(7.45),B.1.351(Beta)(7.42)</t>
-  </si>
-  <si>
     <t>B.1.1.519(7.97),B.1.351(Beta)(7.92),A.23.1+E484K(7.62)</t>
   </si>
   <si>
@@ -73,13 +64,10 @@
     <t>C.37(Lambda)(-1.75),C.1.2(-1.36),B.1.525(Eta)(-1.11)</t>
   </si>
   <si>
-    <t>C.37(Lambda)(-1.92),B.1.427(Epsilon)(-1.48),AY.4.2(-1.38)</t>
-  </si>
-  <si>
     <t>co-conservation</t>
   </si>
   <si>
-    <t>edge centrality</t>
+    <t>average shortest length</t>
   </si>
   <si>
     <t>closeness centrality</t>
@@ -97,15 +85,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -113,15 +98,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -160,34 +138,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -229,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,27 +227,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,24 +261,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -506,24 +436,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -543,273 +463,235 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>0.2325022329648584</v>
+      </c>
+      <c r="F2">
+        <v>0.0009801258757229001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>0.2074997928517727</v>
+      </c>
+      <c r="F3">
+        <v>0.0447746160172081</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3">
-        <v>0.23250223296485839</v>
-      </c>
-      <c r="F2" s="3">
-        <v>9.801258757229001E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
+      <c r="E4">
+        <v>-0.2074997928517727</v>
+      </c>
+      <c r="F4">
+        <v>0.0447746160172081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3">
-        <v>-0.19364095972894241</v>
-      </c>
-      <c r="F3" s="3">
-        <v>6.2676802121729002E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E5">
+        <v>-0.0499381770263993</v>
+      </c>
+      <c r="F5">
+        <v>0.6326581415680248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3">
-        <v>-0.2074997928517727</v>
-      </c>
-      <c r="F4" s="3">
-        <v>4.4774616017208099E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1" t="s">
+      <c r="E6">
+        <v>-0.0555255592710207</v>
+      </c>
+      <c r="F6">
+        <v>0.5950393253876889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3">
-        <v>-3.6098649922740103E-2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.72977926641550273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="3">
-        <v>-5.5525559271020701E-2</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.59503932538768889</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3">
-        <v>4.7539390485158498E-2</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.64910785785438407</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+      <c r="E7">
+        <v>0.0475393904851585</v>
+      </c>
+      <c r="F7">
+        <v>0.6491078578543841</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.36115985753236601</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3.8923960001373603E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>0.5576923076923077</v>
+      </c>
+      <c r="F8">
+        <v>0.0037727542045721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>-0.1457672628688154</v>
+      </c>
+      <c r="F9">
+        <v>0.1458106746124249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="3">
-        <v>0.55769230769230771</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3.7727542045720998E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10">
+        <v>0.1457672628688154</v>
+      </c>
+      <c r="F10">
+        <v>0.1458106746124249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>0.2525997720664337</v>
+      </c>
+      <c r="F11">
+        <v>0.0108197179776494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>0.2418391982302412</v>
+      </c>
+      <c r="F12">
+        <v>0.0148308152552781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>0.2712597887717002</v>
+      </c>
+      <c r="F13">
+        <v>0.00607251774258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.14576726286881539</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.14581067461242489</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.25612921033403019</v>
-      </c>
-      <c r="F11" s="3">
-        <v>9.7293126365659999E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.24183919823024119</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1.48308152552781E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.27125978877170021</v>
-      </c>
-      <c r="F13" s="3">
-        <v>6.0725177425799996E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>0.1093608842843527</v>
+      </c>
+      <c r="F14">
+        <v>0.09441562156671721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.1093608842843527</v>
-      </c>
-      <c r="F14" s="3">
-        <v>9.4415621566717206E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
       <c r="D15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-0.13277747483144831</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4.1991992136511502E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="3">
-        <v>-0.30136986301369861</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="E15">
+        <v>-0.3013698630136986</v>
+      </c>
+      <c r="F15">
         <v>0.1191194328409136</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="3">
-        <v>-0.2493523865980056</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.16169092464363791</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A17"/>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
     <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C9:C13"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/procon/combine_with_other_tools - parse.xlsx
+++ b/data/procon/combine_with_other_tools - parse.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Box\Cov2_protein\data\procon\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809063B8-2E20-4A13-88BD-C82ED1C1F867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -85,12 +91,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -98,20 +104,53 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -134,26 +173,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -195,7 +304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,9 +336,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,6 +388,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,14 +581,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -463,195 +618,195 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.2074997928517727</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4.4774616017208099E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-0.2074997928517727</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.4774616017208099E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>-4.99381770263993E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.6326581415680248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>-5.5525559271020701E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.59503932538768889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>4.7539390485158498E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.64910785785438407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2">
-        <v>0.2325022329648584</v>
-      </c>
-      <c r="F2">
-        <v>0.0009801258757229001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>0.2074997928517727</v>
-      </c>
-      <c r="F3">
-        <v>0.0447746160172081</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>-0.2074997928517727</v>
-      </c>
-      <c r="F4">
-        <v>0.0447746160172081</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>-0.0499381770263993</v>
-      </c>
-      <c r="F5">
-        <v>0.6326581415680248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>-0.0555255592710207</v>
-      </c>
-      <c r="F6">
-        <v>0.5950393253876889</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>0.0475393904851585</v>
-      </c>
-      <c r="F7">
-        <v>0.6491078578543841</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
+      <c r="E7" s="3">
+        <v>0.23250223296485839</v>
+      </c>
+      <c r="F7" s="3">
+        <v>9.801258757229001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E8">
-        <v>0.5576923076923077</v>
-      </c>
-      <c r="F8">
-        <v>0.0037727542045721</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
+      <c r="E8" s="4">
+        <v>0.55769230769230771</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3.7727542045720998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E9">
-        <v>-0.1457672628688154</v>
+        <v>-0.14576726286881539</v>
       </c>
       <c r="F9">
-        <v>0.1458106746124249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+        <v>0.14581067461242489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E10">
-        <v>0.1457672628688154</v>
+        <v>0.14576726286881539</v>
       </c>
       <c r="F10">
-        <v>0.1458106746124249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
+        <v>0.14581067461242489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E11">
-        <v>0.2525997720664337</v>
-      </c>
-      <c r="F11">
-        <v>0.0108197179776494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="E11" s="3">
+        <v>0.25259977206643369</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.08197179776494E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12">
-        <v>0.2418391982302412</v>
-      </c>
-      <c r="F12">
-        <v>0.0148308152552781</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
+      <c r="E12" s="3">
+        <v>0.24183919823024119</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.48308152552781E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>0.2712597887717002</v>
-      </c>
-      <c r="F13">
-        <v>0.00607251774258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="E13" s="3">
+        <v>0.27125978877170021</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6.0725177425799996E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
@@ -662,11 +817,11 @@
         <v>0.1093608842843527</v>
       </c>
       <c r="F14">
-        <v>0.09441562156671721</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1"/>
+        <v>9.4415621566717206E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
@@ -677,7 +832,7 @@
         <v>16</v>
       </c>
       <c r="E15">
-        <v>-0.3013698630136986</v>
+        <v>-0.30136986301369861</v>
       </c>
       <c r="F15">
         <v>0.1191194328409136</v>
@@ -685,13 +840,15 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C2:C6"/>
     <mergeCell ref="C9:C13"/>
+    <mergeCell ref="A2:A8"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/procon/combine_with_other_tools - parse.xlsx
+++ b/data/procon/combine_with_other_tools - parse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Box\Cov2_protein\data\procon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809063B8-2E20-4A13-88BD-C82ED1C1F867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB8BBCD-2E46-427F-8FD4-E57E56B573EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Correlation</t>
   </si>
@@ -28,9 +28,6 @@
     <t>P value</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>Kind</t>
   </si>
   <si>
@@ -46,36 +43,27 @@
     <t>stability</t>
   </si>
   <si>
-    <t>substitution</t>
-  </si>
-  <si>
-    <t>variant</t>
-  </si>
-  <si>
     <t>D215G-D614G(8.05),S371F-D614G(7.99),D614G-T732A(7.97)</t>
   </si>
   <si>
     <t>Q493R(8.23),D215G(8.10),T547K(8.07)</t>
   </si>
   <si>
-    <t>B.1.1.519(7.97),B.1.351(Beta)(7.92),A.23.1+E484K(7.62)</t>
+    <t>Q493R-T547K(8.15),T478K-Q493R(8.13),V213G-Q493R(8.12)</t>
   </si>
   <si>
     <t>G142D(-4.78),E156G(-3.67),C136F(-3.17)</t>
   </si>
   <si>
+    <t>G142D-E156G(-4.22),G142D-Y145H(-3.62),G142D-N439K(-3.38)</t>
+  </si>
+  <si>
     <t>T95I-G142D(-2.98),G142D-N501Y(-2.88),P9L-T859N(-2.87)</t>
   </si>
   <si>
-    <t>C.37(Lambda)(-1.75),C.1.2(-1.36),B.1.525(Eta)(-1.11)</t>
-  </si>
-  <si>
     <t>co-conservation</t>
   </si>
   <si>
-    <t>average shortest length</t>
-  </si>
-  <si>
     <t>closeness centrality</t>
   </si>
   <si>
@@ -86,13 +74,19 @@
   </si>
   <si>
     <t>page rank</t>
+  </si>
+  <si>
+    <t>shortest path length</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +103,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -116,23 +117,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,11 +128,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -211,12 +192,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -225,11 +203,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -239,12 +217,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
@@ -582,23 +559,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C13"/>
+      <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="70.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -609,245 +585,192 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-0.2074997928517727</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4.4774616017208099E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-4.99381770263993E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.6326581415680248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-5.5525559271020701E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.59503932538768889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4.7539390485158498E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.64910785785438407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.23250223296485839</v>
+      </c>
+      <c r="E6" s="4">
+        <v>9.801258757229001E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.17877759517155861</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6.1477398490522461E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.14576726286881539</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.14581067461242489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.25259977206643369</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.08197179776494E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.24183919823024119</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.48308152552781E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.27125978877170021</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6.0725177425799996E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.2074997928517727</v>
-      </c>
-      <c r="F2" s="3">
-        <v>4.4774616017208099E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="8" t="s">
+      <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3">
-        <v>-0.2074997928517727</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4.4774616017208099E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>-4.99381770263993E-2</v>
-      </c>
-      <c r="F4">
-        <v>0.6326581415680248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>-5.5525559271020701E-2</v>
-      </c>
-      <c r="F5">
-        <v>0.59503932538768889</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>4.7539390485158498E-2</v>
-      </c>
-      <c r="F6">
-        <v>0.64910785785438407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.23250223296485839</v>
-      </c>
-      <c r="F7" s="3">
-        <v>9.801258757229001E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D12" s="2">
+        <v>-2.9406050787129299E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.35004102970075768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.55769230769230771</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3.7727542045720998E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <v>-0.14576726286881539</v>
-      </c>
-      <c r="F9">
-        <v>0.14581067461242489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>0.14576726286881539</v>
-      </c>
-      <c r="F10">
-        <v>0.14581067461242489</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.25259977206643369</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1.08197179776494E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.24183919823024119</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1.48308152552781E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.27125978877170021</v>
-      </c>
-      <c r="F13" s="3">
-        <v>6.0725177425799996E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14">
+      <c r="D13" s="2">
         <v>0.1093608842843527</v>
       </c>
-      <c r="F14">
+      <c r="E13" s="2">
         <v>9.4415621566717206E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15">
-        <v>-0.30136986301369861</v>
-      </c>
-      <c r="F15">
-        <v>0.1191194328409136</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="A2:A8"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A8:A13"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/procon/combine_with_other_tools - parse.xlsx
+++ b/data/procon/combine_with_other_tools - parse.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Box\Cov2_protein\data\procon\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB8BBCD-2E46-427F-8FD4-E57E56B573EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Correlation</t>
   </si>
@@ -28,6 +22,9 @@
     <t>P value</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>Kind</t>
   </si>
   <si>
@@ -41,6 +38,9 @@
   </si>
   <si>
     <t>stability</t>
+  </si>
+  <si>
+    <t>substitution</t>
   </si>
   <si>
     <t>D215G-D614G(8.05),S371F-D614G(7.99),D614G-T732A(7.97)</t>
@@ -82,15 +82,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -98,40 +95,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -154,92 +131,26 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -281,7 +192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,27 +224,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,24 +258,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -558,23 +433,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="70.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -585,193 +451,212 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>0.2325022329648584</v>
+      </c>
+      <c r="F2">
+        <v>0.0009801258757229001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>-0.2074997928517727</v>
+      </c>
+      <c r="F3">
+        <v>0.0447746160172081</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>-0.0499381770263993</v>
+      </c>
+      <c r="F4">
+        <v>0.6326581415680248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>-0.0555255592710207</v>
+      </c>
+      <c r="F5">
+        <v>0.5950393253876889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>0.0475393904851585</v>
+      </c>
+      <c r="F6">
+        <v>0.6491078578543841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>0.1787775951715586</v>
+      </c>
+      <c r="F7">
+        <v>6.147739849052246E-08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>0.1457672628688154</v>
+      </c>
+      <c r="F8">
+        <v>0.1458106746124249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>0.2525997720664337</v>
+      </c>
+      <c r="F9">
+        <v>0.0108197179776494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>0.2418391982302412</v>
+      </c>
+      <c r="F10">
+        <v>0.0148308152552781</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>0.2712597887717002</v>
+      </c>
+      <c r="F11">
+        <v>0.00607251774258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>-0.0294060507871293</v>
+      </c>
+      <c r="F12">
+        <v>0.3500410297007577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2">
-        <v>-0.2074997928517727</v>
-      </c>
-      <c r="E2" s="4">
-        <v>4.4774616017208099E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2">
-        <v>-4.99381770263993E-2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.6326581415680248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2">
-        <v>-5.5525559271020701E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.59503932538768889</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4.7539390485158498E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.64910785785438407</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.23250223296485839</v>
-      </c>
-      <c r="E6" s="4">
-        <v>9.801258757229001E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.17877759517155861</v>
-      </c>
-      <c r="E7" s="4">
-        <v>6.1477398490522461E-8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.14576726286881539</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.14581067461242489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.25259977206643369</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1.08197179776494E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.24183919823024119</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1.48308152552781E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.27125978877170021</v>
-      </c>
-      <c r="E11" s="4">
-        <v>6.0725177425799996E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-2.9406050787129299E-2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.35004102970075768</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="E13">
         <v>0.1093608842843527</v>
       </c>
-      <c r="E13" s="2">
-        <v>9.4415621566717206E-2</v>
+      <c r="F13">
+        <v>0.09441562156671721</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B8:B11"/>
     <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C8:C11"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>